--- a/reference/CodeSystemTable.xlsx
+++ b/reference/CodeSystemTable.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{EEED149B-CCF7-824F-9A19-2677F0CD65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8583DD48-05ED-2E43-91B6-B7FBC98C4ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="500" windowWidth="31060" windowHeight="17500"/>
+    <workbookView xWindow="38300" yWindow="9920" windowWidth="31060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1331,9 +1331,6 @@
     <t>1.2.392.200250.2.2.20.43</t>
   </si>
   <si>
-    <t>1.2.392.200250.2.2.20.44</t>
-  </si>
-  <si>
     <t>1.2.392.200250.2.2.21</t>
   </si>
   <si>
@@ -1365,13 +1362,17 @@
     <rPh sb="2" eb="4">
       <t xml:space="preserve">ジョウホウ </t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.2.392.200250.2.2.20.44</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -1472,7 +1473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1491,28 +1492,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1828,11 +1817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1871,10 +1860,10 @@
         <v>108</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -2209,7 +2198,7 @@
         <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E15" t="s">
         <v>254</v>
@@ -2347,7 +2336,7 @@
         <v>252</v>
       </c>
       <c r="L24" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2358,139 +2347,139 @@
         <v>253</v>
       </c>
       <c r="L25" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="10" customFormat="1">
-      <c r="A29" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="8" customFormat="1">
+      <c r="A29" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="10" customFormat="1">
-      <c r="C30" s="10" t="s">
+    <row r="30" spans="1:12" s="8" customFormat="1">
+      <c r="C30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="10" customFormat="1">
-      <c r="E31" s="10" t="s">
+    <row r="31" spans="1:12" s="8" customFormat="1">
+      <c r="E31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="10" customFormat="1">
-      <c r="E32" s="10" t="s">
+    <row r="32" spans="1:12" s="8" customFormat="1">
+      <c r="E32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="10" customFormat="1">
-      <c r="E33" s="10" t="s">
+    <row r="33" spans="1:14" s="8" customFormat="1">
+      <c r="E33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="10" customFormat="1">
-      <c r="C34" s="10" t="s">
+    <row r="34" spans="1:14" s="8" customFormat="1">
+      <c r="C34" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="10" customFormat="1">
-      <c r="E35" s="10" t="s">
+    <row r="35" spans="1:14" s="8" customFormat="1">
+      <c r="E35" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="10" customFormat="1">
-      <c r="E36" s="10" t="s">
+    <row r="36" spans="1:14" s="8" customFormat="1">
+      <c r="E36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="10" customFormat="1">
-      <c r="C37" s="10" t="s">
+    <row r="37" spans="1:14" s="8" customFormat="1">
+      <c r="C37" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="10" customFormat="1">
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:14" s="10" customFormat="1">
-      <c r="C39" s="10" t="s">
+    <row r="38" spans="1:14" s="8" customFormat="1">
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:14" s="8" customFormat="1">
+      <c r="C39" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="10" customFormat="1">
-      <c r="C40" s="10" t="s">
+    <row r="40" spans="1:14" s="8" customFormat="1">
+      <c r="C40" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2559,13 +2548,13 @@
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="5:14" ht="21">
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K49" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="L49" s="8" t="s">
+      <c r="K49" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>111</v>
       </c>
       <c r="M49" s="3" t="s">
@@ -2573,13 +2562,13 @@
       </c>
     </row>
     <row r="50" spans="5:14" ht="21">
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K50" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="L50" s="8" t="s">
+      <c r="K50" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>112</v>
       </c>
       <c r="M50" s="3" t="s">
@@ -2587,13 +2576,13 @@
       </c>
     </row>
     <row r="51" spans="5:14" ht="21">
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K51" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="L51" s="8" t="s">
+      <c r="K51" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>114</v>
       </c>
       <c r="M51" s="3" t="s">
@@ -2694,26 +2683,26 @@
       </c>
     </row>
     <row r="59" spans="5:14">
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L59" s="8" t="s">
+      <c r="L59" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" spans="5:14">
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L60" s="8" t="s">
+      <c r="L60" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="61" spans="5:14">
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="L61" s="7" t="s">
         <v>128</v>
       </c>
       <c r="N61" t="s">
@@ -2721,10 +2710,10 @@
       </c>
     </row>
     <row r="62" spans="5:14">
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L62" s="8" t="s">
+      <c r="L62" s="7" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2743,13 +2732,13 @@
       </c>
     </row>
     <row r="64" spans="5:14" ht="21">
-      <c r="E64" s="9" t="s">
+      <c r="E64" t="s">
         <v>133</v>
       </c>
       <c r="K64" t="s">
         <v>204</v>
       </c>
-      <c r="L64" s="8" t="s">
+      <c r="L64" s="7" t="s">
         <v>134</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -2863,7 +2852,7 @@
       <c r="K74" t="s">
         <v>228</v>
       </c>
-      <c r="L74" s="7" t="s">
+      <c r="L74" s="6" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2882,13 +2871,10 @@
       <c r="E76" t="s">
         <v>164</v>
       </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
       <c r="K76" t="s">
         <v>232</v>
       </c>
-      <c r="L76" s="6" t="s">
+      <c r="L76" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2896,25 +2882,18 @@
       <c r="E77" t="s">
         <v>230</v>
       </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
       <c r="K77" t="s">
         <v>231</v>
       </c>
-      <c r="L77" s="6"/>
     </row>
     <row r="78" spans="5:14">
       <c r="E78" t="s">
         <v>233</v>
       </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
       <c r="K78" t="s">
         <v>234</v>
       </c>
-      <c r="L78" s="6" t="s">
+      <c r="L78" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2922,13 +2901,10 @@
       <c r="E79" t="s">
         <v>235</v>
       </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
       <c r="K79" t="s">
         <v>236</v>
       </c>
-      <c r="L79" s="6" t="s">
+      <c r="L79" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2936,13 +2912,10 @@
       <c r="E80" t="s">
         <v>237</v>
       </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
       <c r="K80" t="s">
         <v>238</v>
       </c>
-      <c r="L80" s="6" t="s">
+      <c r="L80" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2950,13 +2923,10 @@
       <c r="E81" t="s">
         <v>165</v>
       </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
       <c r="K81" t="s">
         <v>239</v>
       </c>
-      <c r="L81" s="6" t="s">
+      <c r="L81" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3023,12 +2993,12 @@
       </c>
     </row>
     <row r="89" spans="3:13" ht="21">
-      <c r="L89" s="12"/>
-      <c r="M89" s="13"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="2"/>
     </row>
     <row r="90" spans="3:13" ht="21">
-      <c r="L90" s="12"/>
-      <c r="M90" s="13"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B49">
@@ -3040,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/reference/CodeSystemTable.xlsx
+++ b/reference/CodeSystemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8583DD48-05ED-2E43-91B6-B7FBC98C4ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E14CA1-2D65-734F-B7F0-D5E2C9AA0D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38300" yWindow="9920" windowWidth="31060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="31060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="281">
   <si>
     <t>医科診療行為マスター</t>
   </si>
@@ -1129,22 +1129,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>http://jami.jp/CodeSystem/MedicationUsage</t>
-  </si>
-  <si>
-    <t>http://jami.jp/CodeSystem/MedicationUsageAdditional</t>
-  </si>
-  <si>
-    <t>http://jami.jp/CodeSystem/MedicationMethodBasicUsage</t>
-  </si>
-  <si>
     <t>http://jami.jp/CodeSystem/MedicationEventTriggered</t>
-  </si>
-  <si>
-    <t>http://jami.jp/CodeSystem/MedicationBodySiteExternal</t>
-  </si>
-  <si>
-    <t>http://jami.jp/CodeSystem/MedicationMethodDetailUsage</t>
   </si>
   <si>
     <t>http://jami.jp/CodeSystem/MedicationMethodDetailOral</t>
@@ -1366,6 +1351,46 @@
   </si>
   <si>
     <t>1.2.392.200250.2.2.20.44</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://jami.jp/CodeSystem/MedicationUsage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://jami.jp/CodeSystem/MedicationBodySiteExternal</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://jami.jp/CodeSystem/MedicationMethodDetailUsage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://jami.jp/CodeSystem/MedicationMethodBasicUsage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://jami.jp/CodeSystem/MedicationUsageAdditional</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.2.392.200250.2.2.30.10</t>
+  </si>
+  <si>
+    <t>JAMI医薬品調剤指示コード</t>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">イヤクヒン </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">チョウザイ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シジ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://jami.jp/CodeSystem/DrugDispensePreparationMethod</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1820,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1860,10 +1885,10 @@
         <v>108</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -2198,19 +2223,19 @@
         <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E15" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G15">
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L15" t="s">
         <v>180</v>
@@ -2218,16 +2243,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="E16" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G16">
         <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="L16" t="s">
         <v>181</v>
@@ -2235,119 +2260,130 @@
     </row>
     <row r="17" spans="1:12">
       <c r="E17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F17" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="L17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="E18" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F18" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L18" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="E19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="L19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="42">
+    <row r="20" spans="1:12" ht="77" customHeight="1">
       <c r="E20" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K20" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="L20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="E21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K21" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L21" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="E22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K22" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="E23" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="E24" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K24" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="E25" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K25" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s">
-        <v>272</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="E27" t="s">
+        <v>279</v>
+      </c>
+      <c r="K27" t="s">
+        <v>280</v>
+      </c>
+      <c r="L27" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="8" customFormat="1">
@@ -2552,7 +2588,7 @@
         <v>178</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>111</v>
@@ -2566,7 +2602,7 @@
         <v>179</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>112</v>
@@ -2580,7 +2616,7 @@
         <v>113</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>114</v>
